--- a/data/trans_camb/P57_AF_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>6.859773076565312</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-14.38331066047617</v>
+        <v>-14.38331066047616</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-3.967655941132586</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.68962280763486</v>
+        <v>-14.68973908029039</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.065445098150486</v>
+        <v>1.895965717400834</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-19.92984745795328</v>
+        <v>-19.82808751498939</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.180081605312919</v>
+        <v>-9.000118082466415</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.719319751088688</v>
+        <v>5.905831497002762</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-16.05225405978347</v>
+        <v>-16.3082764882157</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-10.30647948098966</v>
+        <v>-10.44603690614365</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.10474011281112</v>
+        <v>5.337146212250963</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-16.79843731028198</v>
+        <v>-16.35564490322197</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-4.637286308057668</v>
+        <v>-4.595020382245515</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.56292040975781</v>
+        <v>11.62877008586194</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-9.139626706127284</v>
+        <v>-8.125472210313944</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.31783786399358</v>
+        <v>0.75283273900017</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>14.95129585051112</v>
+        <v>15.28178463415229</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-6.639946735233268</v>
+        <v>-6.842466360804932</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-3.090423628478476</v>
+        <v>-3.21842052737766</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>12.18793020645945</v>
+        <v>12.19155016923455</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-9.595820405249594</v>
+        <v>-9.223272697949659</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1025007825418022</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2149197330269175</v>
+        <v>-0.2149197330269174</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.05893410534408863</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2124676499344422</v>
+        <v>-0.2128918947694861</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.02924452798229205</v>
+        <v>0.0277700605075154</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2882950186449024</v>
+        <v>-0.2899841921213234</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1316217302838373</v>
+        <v>-0.1288841178208549</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07872212563239334</v>
+        <v>0.0841072548065967</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2301606392429519</v>
+        <v>-0.2336080103331779</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1509764210163932</v>
+        <v>-0.1512799327135058</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.07430379835400495</v>
+        <v>0.08005019790688728</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2428318854184948</v>
+        <v>-0.2403773461270628</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.07345327779683197</v>
+        <v>-0.07000133624773364</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1820370808481732</v>
+        <v>0.1827597134407345</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1411041420581596</v>
+        <v>-0.1283487560181446</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.01976177853224371</v>
+        <v>0.01192629030779804</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2287609355708133</v>
+        <v>0.2349986658943991</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1030722317638685</v>
+        <v>-0.1055976857735553</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.04641113722568686</v>
+        <v>-0.04950694927814691</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1866942329543747</v>
+        <v>0.187590488251627</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1460063752715639</v>
+        <v>-0.1436363260541469</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.861746119877658</v>
+        <v>-3.103862731596303</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.91231658437305</v>
+        <v>9.309862016202938</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.998268812582525</v>
+        <v>-7.124344979572451</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5844167198398128</v>
+        <v>0.9210741834432745</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>10.50466633501154</v>
+        <v>10.84275130765776</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.484115586468916</v>
+        <v>-4.352206155774732</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.469004687301279</v>
+        <v>0.2934814438978182</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>10.94400474128081</v>
+        <v>11.22032772496679</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.152350368072636</v>
+        <v>-4.182477948226157</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.941387726414265</v>
+        <v>6.349537584465094</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.77870723556855</v>
+        <v>17.87594360986051</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.29678878148477</v>
+        <v>2.991197940194166</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.506866727212776</v>
+        <v>9.668501568159737</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.63363447815584</v>
+        <v>18.93457105754486</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.827100173090987</v>
+        <v>4.343383593535663</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.363734741569371</v>
+        <v>6.868913592545295</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.0568773292221</v>
+        <v>16.8249649876972</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.357595088233864</v>
+        <v>2.147205984252184</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.04677451254256642</v>
+        <v>-0.04927473096198486</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1416672819703204</v>
+        <v>0.1474312539386489</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1129529450756877</v>
+        <v>-0.1121110448273577</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.008399274952116688</v>
+        <v>0.01403726322638787</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1650856570531473</v>
+        <v>0.1673757109175845</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.06935238646080788</v>
+        <v>-0.06690332551629716</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007520289398538255</v>
+        <v>0.004701782051866745</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1737616722920106</v>
+        <v>0.1782858270917142</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.06682601583816714</v>
+        <v>-0.06725783632917842</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1029292899437296</v>
+        <v>0.1106157585583993</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3059147156299792</v>
+        <v>0.3099213139840201</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.03965840939218348</v>
+        <v>0.05304189846707586</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1594513089817063</v>
+        <v>0.1618312319644694</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3136120978970484</v>
+        <v>0.3215750371389388</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06257018442088594</v>
+        <v>0.0728421945691089</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.106636958919742</v>
+        <v>0.1149798698803448</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2875075691659315</v>
+        <v>0.284439648907849</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.03959036416552243</v>
+        <v>0.03628752643258557</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>23.93807614142137</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.007106888880048512</v>
+        <v>-0.00710688888003741</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.355508213271707</v>
@@ -1092,7 +1092,7 @@
         <v>24.03171340684213</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.906416410708822</v>
+        <v>1.906416410708833</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.401721247728386</v>
+        <v>-2.525223552312871</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>19.22134067063974</v>
+        <v>19.25532413352511</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.369808483547301</v>
+        <v>-1.964042194294866</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.342150851283361</v>
+        <v>-1.182788026052893</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>19.45050117602116</v>
+        <v>19.39881941762563</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.81984141978127</v>
+        <v>-5.265222342340051</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.4326980645889805</v>
+        <v>-0.6111056118419156</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>20.54370714198445</v>
+        <v>20.65293462342408</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.863574555616164</v>
+        <v>-1.836054177654402</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.715751762061132</v>
+        <v>7.915312114873633</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>29.10322975991198</v>
+        <v>28.59638263231222</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.42255587979272</v>
+        <v>9.125208796972425</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.898125035827634</v>
+        <v>8.824794435949144</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>28.3992858466624</v>
+        <v>28.89281262204258</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.020939401862684</v>
+        <v>4.945067192175729</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.102696935618131</v>
+        <v>6.981342661776785</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>27.41873920614244</v>
+        <v>27.58856311567689</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.590698902183036</v>
+        <v>5.640488256476082</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.411875318671549</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.0001222801742688192</v>
+        <v>-0.0001222801742686282</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.05844336010574341</v>
@@ -1197,7 +1197,7 @@
         <v>0.4185637439476502</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.03320432367349794</v>
+        <v>0.03320432367349813</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.04075677690655295</v>
+        <v>-0.0424251463058827</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.3218094235825808</v>
+        <v>0.3223423427117324</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.02444168038235358</v>
+        <v>-0.0324309837324269</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.02225917205834592</v>
+        <v>-0.01921378784421578</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3164163361324411</v>
+        <v>0.3179413727853564</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.07821580146389644</v>
+        <v>-0.08636113255006379</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.006941249148062374</v>
+        <v>-0.01050852247835024</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3429940532380182</v>
+        <v>0.3467526962070172</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.03126051804483496</v>
+        <v>-0.03007498395862069</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1627766542758319</v>
+        <v>0.1457918866296068</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5457174135753522</v>
+        <v>0.5336415563619703</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1918628056612817</v>
+        <v>0.1698698044521129</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1604818698550907</v>
+        <v>0.1577475608772343</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5221338904949221</v>
+        <v>0.526526321356062</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08952748179065648</v>
+        <v>0.09042374491748532</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1293240711404472</v>
+        <v>0.1257434915606147</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5033717983378425</v>
+        <v>0.4999269400547622</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1015989623562925</v>
+        <v>0.1043396907653948</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>10.37422908418609</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-2.924592918727131</v>
+        <v>-2.92459291872712</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.797152690863085</v>
+        <v>3.466935406190472</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.112044857870917</v>
+        <v>4.771786303497421</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.909130276998202</v>
+        <v>-7.990283434145064</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.261071185978434</v>
+        <v>9.432097774976469</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>7.092349859778642</v>
+        <v>7.248236726804145</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.782359354278995</v>
+        <v>-6.465005312473231</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>8.047105400143057</v>
+        <v>8.187359116339646</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>7.274189361545805</v>
+        <v>7.452951190414131</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-5.782061554412243</v>
+        <v>-5.917627433212481</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.53746140802776</v>
+        <v>12.16528403743169</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.4297469772104</v>
+        <v>13.73539491197681</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.38553793774523</v>
+        <v>0.8212296997647925</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.58062284215122</v>
+        <v>17.7845901551457</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>15.45920165690022</v>
+        <v>15.92843248791477</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.383705023357303</v>
+        <v>1.487572885616602</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>14.06570025977996</v>
+        <v>14.01548025685052</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>13.38547626004485</v>
+        <v>13.43895479727325</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.001747892323321884</v>
+        <v>0.279291979748298</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1763638421012272</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.04971862868490198</v>
+        <v>-0.04971862868490179</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.06337410791324606</v>
+        <v>0.05648524609871409</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.08294826602379747</v>
+        <v>0.07642664794950056</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1309251433070222</v>
+        <v>-0.1295098066469823</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1514775239476737</v>
+        <v>0.1565844336491171</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1182394186088012</v>
+        <v>0.1201905852018575</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1122948811025604</v>
+        <v>-0.1077692172214555</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1346970061402221</v>
+        <v>0.1361408196695721</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1216231384609132</v>
+        <v>0.1241393111249944</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.09532546735005924</v>
+        <v>-0.0984929185673151</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2220673556034211</v>
+        <v>0.2111966490648613</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2366087362247504</v>
+        <v>0.2408024612937841</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.02269045341934767</v>
+        <v>0.01515125770229555</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3138886723911954</v>
+        <v>0.321057795904731</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2771242559743521</v>
+        <v>0.2859045414132576</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02495849382620349</v>
+        <v>0.02661707673812494</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2476593452523858</v>
+        <v>0.2434919330563928</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2344087379333373</v>
+        <v>0.2364658733635606</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.0004551694631541551</v>
+        <v>0.005469500054394794</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>13.24194788006383</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-3.699322236077196</v>
+        <v>-3.699322236077207</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>5.58819750341002</v>
@@ -1520,7 +1520,7 @@
         <v>14.06356089484934</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-3.365784617819279</v>
+        <v>-3.36578461781929</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.266151483813687</v>
+        <v>-1.003840931444971</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>10.98672094033504</v>
+        <v>11.0608787364729</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.016179580947626</v>
+        <v>-6.006723462648057</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.280860491679713</v>
+        <v>3.302133029609018</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>12.30721330783962</v>
+        <v>12.77556608085612</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.100626905713659</v>
+        <v>-5.156937511174794</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.775834977018622</v>
+        <v>1.84229677604867</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>12.40701984442996</v>
+        <v>12.4861530710965</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.110884323922697</v>
+        <v>-4.939593805792175</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.491334751241111</v>
+        <v>3.739376935895515</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.50247541043336</v>
+        <v>15.48468823372707</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.214274857295861</v>
+        <v>-1.095274480596624</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.033193321246271</v>
+        <v>8.012448621426616</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>16.87355811878634</v>
+        <v>17.31071134307453</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.9976771376124386</v>
+        <v>-0.7092200054640264</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.023271157931925</v>
+        <v>5.115948238467971</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>15.72659519817787</v>
+        <v>15.75963820358269</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.631279491077735</v>
+        <v>-1.764208867095748</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.2181606683362387</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.06094621567184567</v>
+        <v>-0.06094621567184585</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.09124331538557139</v>
@@ -1625,7 +1625,7 @@
         <v>0.2306412933761219</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.05519860320465524</v>
+        <v>-0.05519860320465542</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.02112090894903687</v>
+        <v>-0.01632302375557229</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1760840734817403</v>
+        <v>0.1790928351357893</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.09788611777890076</v>
+        <v>-0.09929653111937473</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.05263581179023039</v>
+        <v>0.05331616727582435</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1979486935175776</v>
+        <v>0.2044224345392823</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.082564478222065</v>
+        <v>-0.08248326176321535</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02879031372343755</v>
+        <v>0.03000894295417398</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2003414278139641</v>
+        <v>0.2012337012942709</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.08237964700649016</v>
+        <v>-0.08043931283497037</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.05835668566559137</v>
+        <v>0.06204714616378931</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2610064824633161</v>
+        <v>0.2597039881308829</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.02028039268371696</v>
+        <v>-0.01865972202015235</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1337852891451647</v>
+        <v>0.1343449844092001</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2823088461187013</v>
+        <v>0.2887038614970192</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.01719972237908639</v>
+        <v>-0.01116468775171728</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08378440892478267</v>
+        <v>0.08518385097082189</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2617367126582796</v>
+        <v>0.2637486753329466</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.02727896140644155</v>
+        <v>-0.0292646241162578</v>
       </c>
     </row>
     <row r="34">
